--- a/website/csv_files/Conference_Download.xlsx
+++ b/website/csv_files/Conference_Download.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,14 +499,14 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>sdkjvds</t>
+          <t>sdvdsv</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -516,12 +516,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>sklvnjjskd</t>
+          <t>sdvdsvds</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>kldsjkvnsd</t>
+          <t>vdsvdsv</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -530,75 +530,21 @@
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>46023</v>
+        <v>45000</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ldslnkv</t>
+          <t>dsvd</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>skdjvsdlk</t>
+          <t>sdvdsv</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>kmksnldj</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sd,vnkjdbsk</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Book Chapter</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>skljvbds</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>dsknvj</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>dkmsljkv</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>sdjkvbds</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>kmcsdljv</t>
+          <t>sdv</t>
         </is>
       </c>
     </row>
